--- a/data/trans_media/Q17H_A-Estudios-trans_media.xlsx
+++ b/data/trans_media/Q17H_A-Estudios-trans_media.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -685,12 +685,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,64; 0,84</t>
+          <t>0,63; 0,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,5; 0,72</t>
+          <t>0,49; 0,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -700,12 +700,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,3; 0,45</t>
+          <t>0,3; 0,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,21; 0,49</t>
+          <t>0,21; 0,55</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,47; 0,6</t>
+          <t>0,48; 0,61</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,36; 0,55</t>
+          <t>0,36; 0,54</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -800,7 +800,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,66; 0,86</t>
+          <t>0,67; 0,85</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -810,12 +810,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,48; 0,62</t>
+          <t>0,47; 0,61</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,34; 0,46</t>
+          <t>0,35; 0,47</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -825,7 +825,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,72; 0,87</t>
+          <t>0,72; 0,86</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -905,7 +905,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,69; 0,98</t>
+          <t>0,7; 0,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -920,12 +920,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,41; 0,69</t>
+          <t>0,42; 0,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,31; 0,56</t>
+          <t>0,31; 0,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -940,7 +940,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,51; 0,79</t>
+          <t>0,51; 0,76</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,66; 0,81</t>
+          <t>0,66; 0,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1030,17 +1030,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,44; 0,53</t>
+          <t>0,43; 0,53</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,32; 0,44</t>
+          <t>0,32; 0,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,01</t>
+          <t>0,0; 0,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
